--- a/Day24-C 指针/内存与指针.xlsx
+++ b/Day24-C 指针/内存与指针.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="20420" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="20420" windowHeight="14560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <r>
       <t>2D3F5A00</t>
@@ -34,28 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>7q68728</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>'V'</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;c=7968728</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,6 +95,59 @@
       </rPr>
       <t>8000.75</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;c=7968728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aabbccdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*(*pointer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aabbccdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7q68728</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>'V'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小弟B=888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小弟A=333333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -231,6 +264,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -584,7 +619,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -647,10 +682,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -664,7 +699,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -674,20 +709,22 @@
     </row>
     <row r="12" spans="1:6" ht="34" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -704,7 +741,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -714,12 +751,16 @@
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
@@ -740,10 +781,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -764,7 +805,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -774,10 +815,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -873,7 +914,6 @@
       <c r="F33" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -886,4 +926,57 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3">
+        <v>333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16">
+        <v>888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>